--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_EASTHILL_20250307.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery_EASTHILL_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,6 +1941,52 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Equal Exchange - Black Silk Espresso</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Equal Exchange - One World</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
